--- a/runs/isa.run.xlsx
+++ b/runs/isa.run.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\David Zimmer\source\repos\Hackathon_SampleRun\runs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jonat\source\repos\Hackathon_SampleRun\runs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{32875353-3AC6-453C-AD23-39132010CC2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09920C95-46B9-4AA6-BDF7-D4C60AFF57A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-14407" yWindow="2805" windowWidth="21135" windowHeight="11422" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="750" windowWidth="16200" windowHeight="11423" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Dictionary" sheetId="4" r:id="rId1"/>
@@ -53,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="47">
   <si>
     <t>Label</t>
   </si>
@@ -187,17 +187,20 @@
     <t>./runs/proteomiqon/run.cwl</t>
   </si>
   <si>
-    <t>./runs/proteomiqon/peptidedb/ChlamyQProt.db</t>
-  </si>
-  <si>
-    <t>./runs/proteomiqon/peptidedb/psmstats/minimal.qpsm</t>
+    <t>./runs/proteomiqon/db/Minimal.db</t>
+  </si>
+  <si>
+    <t>./runs/proteomiqon/psmstats/minimal.qpsm</t>
+  </si>
+  <si>
+    <t>./runs/proteomiqon/db/ChlamyQProt.db</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -237,12 +240,6 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
       <family val="2"/>
     </font>
     <font>
@@ -378,23 +375,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" xfId="2" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="1" xfId="3" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="0" xfId="2" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" xfId="2" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="1" xfId="3" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" xfId="2" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Bad" xfId="2" builtinId="27"/>
@@ -1267,7 +1264,7 @@
   <dimension ref="A1:D32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
@@ -1372,7 +1369,7 @@
         <v>43</v>
       </c>
       <c r="C8" s="17" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D8" s="17"/>
     </row>
